--- a/course_datas/c32_read_html/网易有道单词本列表.xlsx
+++ b/course_datas/c32_read_html/网易有道单词本列表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="253">
   <si>
     <t>单词</t>
   </si>
@@ -25,736 +26,751 @@
     <t>解释</t>
   </si>
   <si>
+    <t>agglomerative</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>adj. 会凝聚的；[冶] 烧结的，凝结的</t>
+  </si>
+  <si>
     <t>anatomy</t>
   </si>
   <si>
+    <t>[ə'nætəmɪ]</t>
+  </si>
+  <si>
+    <t>n. 解剖；解剖学；剖析；骨骼</t>
+  </si>
+  <si>
     <t>backbone</t>
   </si>
   <si>
+    <t>['bækbəʊn]</t>
+  </si>
+  <si>
+    <t>n. 支柱;主干网;决心,毅力;脊椎</t>
+  </si>
+  <si>
     <t>ballpark</t>
   </si>
   <si>
+    <t>['bɔːlpɑːk]</t>
+  </si>
+  <si>
+    <t>n. (美)棒球场;活动领域;可变通范围 adj. 大约的</t>
+  </si>
+  <si>
     <t>bilingual</t>
   </si>
   <si>
+    <t>[baɪ'lɪŋgw(ə)l]</t>
+  </si>
+  <si>
+    <t>adj. 双语的 n. 通两种语言的人</t>
+  </si>
+  <si>
     <t>canonical</t>
   </si>
   <si>
+    <t>[kə'nɒnɪk(ə)l]</t>
+  </si>
+  <si>
+    <t>adj. 依教规的;权威的;牧师的 n. 牧师礼服</t>
+  </si>
+  <si>
     <t>cater</t>
   </si>
   <si>
+    <t>['keɪtə]</t>
+  </si>
+  <si>
+    <t>vt. 投合，迎合；满足需要；提供饮食及服务 n. (Cater)人名；(英)凯特</t>
+  </si>
+  <si>
     <t>clarity</t>
   </si>
   <si>
+    <t>['klærɪtɪ]</t>
+  </si>
+  <si>
+    <t>n. 清楚,明晰;透明 n. (Clarity)人名;(英)克拉里蒂</t>
+  </si>
+  <si>
     <t>compression</t>
   </si>
   <si>
+    <t>[kəm'preʃ(ə)n]</t>
+  </si>
+  <si>
+    <t>n. 压缩,浓缩;压榨,压迫</t>
+  </si>
+  <si>
+    <t>contaminated</t>
+  </si>
+  <si>
+    <t>adj. 受污染的，弄脏的 v. 污染；玷污，毒害（contaminate 的过去式和过去分词）</t>
+  </si>
+  <si>
     <t>counterparts</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>n. （契约）副本（counterpart的复数）；相对物；相对应的人</t>
+  </si>
+  <si>
     <t>criteria</t>
   </si>
   <si>
+    <t>[kraɪ'tɪərɪə]</t>
+  </si>
+  <si>
+    <t>n. 标准，条件（criterion的复数）</t>
+  </si>
+  <si>
     <t>crunch</t>
   </si>
   <si>
+    <t>[krʌntʃ]</t>
+  </si>
+  <si>
+    <t>n.咬碎，咬碎声；扎扎地踏 vt.压碎；嘎扎嘎扎的咬嚼；扎扎地踏过 vi.嘎吱作响地咀嚼；嘎吱嘎吱地踏过</t>
+  </si>
+  <si>
     <t>delighted</t>
   </si>
   <si>
+    <t>[dɪ'laɪtɪd]</t>
+  </si>
+  <si>
+    <t>adj. 高兴的;欣喜的 v. 使…兴高采烈;感到快乐(delight的过去分词)</t>
+  </si>
+  <si>
     <t>denominator</t>
   </si>
   <si>
+    <t>n. [数] 分母；命名者；共同特征或共同性质；平均水平或标准</t>
+  </si>
+  <si>
     <t>disburse</t>
   </si>
   <si>
+    <t>[dɪs'bɜːs]</t>
+  </si>
+  <si>
+    <t>vt.支付；支出</t>
+  </si>
+  <si>
     <t>discipline</t>
   </si>
   <si>
+    <t>['dɪsɪplɪn]</t>
+  </si>
+  <si>
+    <t>n. 学科;纪律;训练;惩罚 vt. 训练,训导;惩戒</t>
+  </si>
+  <si>
     <t>divergence</t>
   </si>
   <si>
+    <t>n. 差异；分歧；分散，发散；（气流或海洋的）分开处</t>
+  </si>
+  <si>
     <t>drawback</t>
   </si>
   <si>
+    <t>['drɔːbæk]</t>
+  </si>
+  <si>
+    <t>n. 缺点,不利条件;退税</t>
+  </si>
+  <si>
     <t>elaborate</t>
   </si>
   <si>
+    <t>[ɪ'læb(ə)rət]</t>
+  </si>
+  <si>
+    <t>adj.精心制作的；详尽的；煞费苦心的 vt.精心制作；详细阐述；从简单成分合成（复杂有机物） vi.详细描述；变复杂</t>
+  </si>
+  <si>
     <t>elevation</t>
   </si>
   <si>
+    <t>[,elɪ'veɪʃ(ə)n]</t>
+  </si>
+  <si>
+    <t>n. 高地;海拔;提高;崇高;正面图</t>
+  </si>
+  <si>
     <t>encapsulate</t>
   </si>
   <si>
+    <t>[in'kæpsəleit]</t>
+  </si>
+  <si>
+    <t>vt. 压缩;将…装入胶囊;将…封进内部;概述 vi. 形成胶囊</t>
+  </si>
+  <si>
     <t>envious</t>
   </si>
   <si>
+    <t>['envɪəs]</t>
+  </si>
+  <si>
+    <t>adj. 羡慕的;嫉妒的</t>
+  </si>
+  <si>
     <t>escalate</t>
   </si>
   <si>
+    <t>['eskəleɪt]</t>
+  </si>
+  <si>
+    <t>vi. 逐步增强；逐步升高 vt. 使逐步上升</t>
+  </si>
+  <si>
     <t>escape</t>
   </si>
   <si>
+    <t>[i'skeip]</t>
+  </si>
+  <si>
+    <t>vt. 逃避,避开,避免;被忘掉;被忽视 vi. 逃脱;避开;溜走;(气体,液体等)漏出;(未受伤或只受了一点伤害而)逃脱;声音(不自觉地)由…发出 n. 逃跑;逃亡;逃走;逃跑工具或方法;野生种;泄漏</t>
+  </si>
+  <si>
     <t>evenly</t>
   </si>
   <si>
+    <t>['i:vənlɪ]</t>
+  </si>
+  <si>
+    <t>adv. 均匀地；平衡地；平坦地；平等地</t>
+  </si>
+  <si>
     <t>evolution</t>
   </si>
   <si>
+    <t>[,iːvə'luːʃ(ə)n; 'ev-]</t>
+  </si>
+  <si>
+    <t>n. 演变；进化论；进展</t>
+  </si>
+  <si>
     <t>feasible</t>
   </si>
   <si>
+    <t>[ˈfiːzəbl]</t>
+  </si>
+  <si>
+    <t>adj.可行的；可能的；可实行的</t>
+  </si>
+  <si>
     <t>frustrating</t>
   </si>
   <si>
+    <t>[frʌ'streɪtɪŋ]</t>
+  </si>
+  <si>
+    <t>adj. 令人沮丧的 v. 使沮丧(frustrate的ing形式)</t>
+  </si>
+  <si>
     <t>gated</t>
   </si>
   <si>
+    <t>['geɪtɪd]</t>
+  </si>
+  <si>
+    <t>adj. 有关卡的;带栅门的 vt. 给…安装门(gate的过去分词)</t>
+  </si>
+  <si>
     <t>hood</t>
   </si>
   <si>
+    <t>[hʊd]</t>
+  </si>
+  <si>
+    <t>n. 头巾;覆盖;兜帽 vt. 罩上;以头巾覆盖 n. (Hood)人名;(英)胡德;(德、荷)霍德</t>
+  </si>
+  <si>
     <t>horribly</t>
   </si>
   <si>
+    <t>['hɒrəblɪ]</t>
+  </si>
+  <si>
+    <t>adv. 可怕地;非常地</t>
+  </si>
+  <si>
     <t>idiomatic</t>
   </si>
   <si>
+    <t>[,ɪdɪə'mætɪk]</t>
+  </si>
+  <si>
+    <t>adj.惯用的；符合语言习惯的；通顺的</t>
+  </si>
+  <si>
     <t>imperative</t>
   </si>
   <si>
+    <t>[ɪmˈperətɪv]</t>
+  </si>
+  <si>
+    <t>adj.必要的，不可避免的；紧急的；命令的，专横的；势在必行的；[语]祈使的 n.必要的事；命令；需要；规则；[语]祈使语气</t>
+  </si>
+  <si>
     <t>incubator</t>
   </si>
   <si>
+    <t>['ɪŋkjʊbeɪtə]</t>
+  </si>
+  <si>
+    <t>n. [禽] 孵卵器；[儿科] 保温箱；早产儿保育器；细菌培养器</t>
+  </si>
+  <si>
     <t>influence</t>
   </si>
   <si>
+    <t>[ˈɪnfluəns]</t>
+  </si>
+  <si>
+    <t>n.影响；势力；感化；有影响的人或事 vt.影响；改变</t>
+  </si>
+  <si>
     <t>ingest</t>
   </si>
   <si>
+    <t>[ɪn'dʒest]</t>
+  </si>
+  <si>
+    <t>vt. 摄取；咽下；吸收；接待</t>
+  </si>
+  <si>
     <t>integrating</t>
   </si>
   <si>
+    <t>v. 整合；积分；集成化（integrate的ing形式） n. 集成化；综合化</t>
+  </si>
+  <si>
     <t>internship</t>
   </si>
   <si>
+    <t>[ˈɪntɜːnʃɪp]</t>
+  </si>
+  <si>
+    <t>n.实习生；（美）实习期；实习医师职位</t>
+  </si>
+  <si>
     <t>intuitive</t>
   </si>
   <si>
+    <t>[ɪn'tjuːɪtɪv]</t>
+  </si>
+  <si>
+    <t>adj. 直觉的;凭直觉获知的</t>
+  </si>
+  <si>
     <t>investigate</t>
   </si>
   <si>
+    <t>[ɪn'vestɪgeɪt]</t>
+  </si>
+  <si>
+    <t>v. 调查;研究</t>
+  </si>
+  <si>
     <t>keen</t>
   </si>
   <si>
+    <t>[kiːn]</t>
+  </si>
+  <si>
+    <t>adj. 敏锐的，敏捷的；渴望的；强烈的；热心的；锐利的 n. 痛哭，挽歌 n. (Keen)人名；(英)基恩；(德)肯；(肯)金</t>
+  </si>
+  <si>
     <t>legacy</t>
   </si>
   <si>
+    <t>['legəsɪ]</t>
+  </si>
+  <si>
+    <t>n. 遗赠,遗产</t>
+  </si>
+  <si>
     <t>literally</t>
   </si>
   <si>
+    <t>['lɪt(ə)rəlɪ]</t>
+  </si>
+  <si>
+    <t>adv. 照字面地;逐字地;不夸张地;正确地;简直</t>
+  </si>
+  <si>
     <t>melt</t>
   </si>
   <si>
+    <t>[melt]</t>
+  </si>
+  <si>
+    <t>vi.熔化，溶解；渐混 vt.使融化；使熔化；使软化；使感动 n.熔化；熔化物</t>
+  </si>
+  <si>
     <t>moderate</t>
   </si>
   <si>
+    <t>['mɒd(ə)rət]</t>
+  </si>
+  <si>
+    <t>adj. 稳健的，温和的；适度的，中等的；有节制的 vi. 变缓和，变弱 vt. 节制；减轻</t>
+  </si>
+  <si>
     <t>muck</t>
   </si>
   <si>
+    <t>[mʌk]</t>
+  </si>
+  <si>
+    <t>n. 淤泥;垃圾;肥料;品质低劣的东西 vt. 弄脏;施肥;清除…的污物 vi. 闲逛;鬼混 n. (Muck)人名;(德、匈、捷)穆克</t>
+  </si>
+  <si>
     <t>nonproliferation</t>
   </si>
   <si>
+    <t>['nɒnprəʊ,lɪfə'reɪʃən]</t>
+  </si>
+  <si>
+    <t>n.防扩散；防止（核）扩散</t>
+  </si>
+  <si>
     <t>notoriously</t>
   </si>
   <si>
+    <t>[noˈtɔːriəsli]</t>
+  </si>
+  <si>
+    <t>adv. 众所周知地;声名狼藉地;恶名昭彰地</t>
+  </si>
+  <si>
     <t>novices</t>
   </si>
   <si>
+    <t>n.新手，初学者（novice的复数形式）</t>
+  </si>
+  <si>
     <t>observation</t>
   </si>
   <si>
+    <t>[ˌɒbzəˈveɪʃn]</t>
+  </si>
+  <si>
+    <t>n.观察；监视；观察报告</t>
+  </si>
+  <si>
     <t>overtake</t>
   </si>
   <si>
+    <t>[əʊvə'teɪk]</t>
+  </si>
+  <si>
+    <t>vt. 赶上；压倒；突然来袭 vi. 超车</t>
+  </si>
+  <si>
     <t>phenomenally</t>
   </si>
   <si>
+    <t>[fi'nɔminəli]</t>
+  </si>
+  <si>
+    <t>adv.现象上地；明白地；从感官认识到</t>
+  </si>
+  <si>
     <t>pivot</t>
   </si>
   <si>
+    <t>['pɪvət]</t>
+  </si>
+  <si>
+    <t>n.枢轴；中心点；中心；旋转运动；基准兵；中锋；（篮球）持球转身策应 v.以……为中心旋转；把……置于枢轴上；在枢轴上转动；随……转移 n.(Pivot) （法、美、意、英、瑞、俄）皮沃（人名）</t>
+  </si>
+  <si>
     <t>polling</t>
   </si>
   <si>
+    <t>['pəʊlɪŋ]</t>
+  </si>
+  <si>
+    <t>n. 投票；轮询 v. 获得…票（poll的ing形式）</t>
+  </si>
+  <si>
     <t>prioritize</t>
   </si>
   <si>
+    <t>[prai'ɔritaiz; 'praiəri-]</t>
+  </si>
+  <si>
+    <t>vt. 把…区分优先次序 vi. 把事情按优先顺序排好</t>
+  </si>
+  <si>
     <t>probability</t>
   </si>
   <si>
+    <t>[prɒbə'bɪlɪtɪ]</t>
+  </si>
+  <si>
+    <t>n. 可能性;机率;[数] 或然率</t>
+  </si>
+  <si>
     <t>psychedelic</t>
   </si>
   <si>
+    <t>[,psaiki'delik]</t>
+  </si>
+  <si>
+    <t>adj. 引起幻觉的 n. 迷幻剂</t>
+  </si>
+  <si>
     <t>pursue</t>
   </si>
   <si>
+    <t>[pə'sjuː]</t>
+  </si>
+  <si>
+    <t>vt. 继续;从事;追赶;纠缠 vi. 追赶;继续进行</t>
+  </si>
+  <si>
     <t>quantized</t>
   </si>
   <si>
+    <t>['kwɒntaɪzd]</t>
+  </si>
+  <si>
+    <t>adj. 量化的;量子化的 v. 使量子化(quantize的过去分词)</t>
+  </si>
+  <si>
     <t>recurring</t>
   </si>
   <si>
+    <t>adj.循环的；再发的 v.再发生，反复出现；（小数）循环（recur 的现在分词）</t>
+  </si>
+  <si>
     <t>reproducible</t>
   </si>
   <si>
+    <t>[,ri:prə'dju:səbl]</t>
+  </si>
+  <si>
+    <t>adj.可再生的；可繁殖的；可复写的</t>
+  </si>
+  <si>
     <t>reside</t>
   </si>
   <si>
+    <t>[rɪ'zaɪd]</t>
+  </si>
+  <si>
+    <t>vi. 住，居住；属于</t>
+  </si>
+  <si>
     <t>respective</t>
   </si>
   <si>
+    <t>[rɪ'spektɪv]</t>
+  </si>
+  <si>
+    <t>adj. 分别的，各自的</t>
+  </si>
+  <si>
     <t>revert</t>
   </si>
   <si>
+    <t>[rɪ'vɜːt]</t>
+  </si>
+  <si>
+    <t>vi. 回复;重提;返祖遗传;归还 vt. 使回复原状 n. 恢复原状者 n. (Revert)人名;(西)雷韦特;(法)勒韦尔</t>
+  </si>
+  <si>
     <t>robust</t>
   </si>
   <si>
+    <t>[rə(ʊ)'bʌst]</t>
+  </si>
+  <si>
+    <t>adj. 强健的；健康的；粗野的；粗鲁的</t>
+  </si>
+  <si>
     <t>rough</t>
   </si>
   <si>
+    <t>[rʌf]</t>
+  </si>
+  <si>
+    <t>adj. 粗糙的;粗略的;粗野的;艰苦的;未经加工的 vt. 使粗糙;粗暴对待;草拟 n. 艰苦;高低不平的地面;未经加工的材料;粗糙的部分 vi. 举止粗野 adv. 粗糙地;粗略地;粗暴地 n. (Rough)人名;(英)拉夫</t>
+  </si>
+  <si>
     <t>sacrifice</t>
   </si>
   <si>
+    <t>['sækrɪfaɪs]</t>
+  </si>
+  <si>
+    <t>n. 牺牲;祭品;供奉 vt. 牺牲;献祭;亏本出售 vi. 献祭;奉献</t>
+  </si>
+  <si>
     <t>sequentially</t>
   </si>
   <si>
+    <t>[si'kwenʃəli]</t>
+  </si>
+  <si>
+    <t>adv. 从而；继续地；循序地</t>
+  </si>
+  <si>
     <t>slide</t>
   </si>
   <si>
+    <t>[slaɪd]</t>
+  </si>
+  <si>
+    <t>v.滑动；平稳地走；悄悄移动；逐渐恶化；贬值；衰落；不知不觉陷入；不加理睬 n.滑动；下跌； 幻灯片；变糟；滑梯；滑垒；坡道滑；雪崩；载物玻璃片；（机器或乐器的）滑动装置；发夹；轻便鞋</t>
+  </si>
+  <si>
     <t>slope</t>
   </si>
   <si>
+    <t>[sləʊp]</t>
+  </si>
+  <si>
+    <t>n. 斜坡;倾斜;斜率;扛枪姿势 vi. 倾斜;逃走 vt. 倾斜;使倾斜;扛</t>
+  </si>
+  <si>
     <t>splice</t>
   </si>
   <si>
+    <t>[splaɪs]</t>
+  </si>
+  <si>
+    <t>vt. 拼接;接合;使结婚 n. 接合;结婚</t>
+  </si>
+  <si>
     <t>spread</t>
   </si>
   <si>
+    <t>[spred]</t>
+  </si>
+  <si>
+    <t>vi. 传播;伸展 vt. 传播,散布;展开;伸展;铺开 n. 传播;伸展 adj. 伸展的</t>
+  </si>
+  <si>
     <t>standardize</t>
   </si>
   <si>
+    <t>['stændədaɪz]</t>
+  </si>
+  <si>
+    <t>vt. 使标准化;用标准检验</t>
+  </si>
+  <si>
     <t>standby</t>
   </si>
   <si>
+    <t>['stæn(d)baɪ]</t>
+  </si>
+  <si>
+    <t>n. 备用品；可信赖的人 adj. 备用的 adv. 备用地；待命地</t>
+  </si>
+  <si>
     <t>supervision</t>
   </si>
   <si>
+    <t>[,suːpə'vɪʒn; ,sjuː-]</t>
+  </si>
+  <si>
+    <t>n. 监督，管理</t>
+  </si>
+  <si>
     <t>tempting</t>
   </si>
   <si>
+    <t>[ˈtemptɪŋ]</t>
+  </si>
+  <si>
+    <t>adj.吸引人的；诱惑人的 v.引诱（tempt的ing形式）</t>
+  </si>
+  <si>
     <t>textures</t>
   </si>
   <si>
+    <t>['tekstʃə]</t>
+  </si>
+  <si>
+    <t>n. 纹理;材质(texture的复数) v. 使具有某种结构(texture的三单形式)</t>
+  </si>
+  <si>
     <t>throughout</t>
   </si>
   <si>
+    <t>[θruː'aʊt]</t>
+  </si>
+  <si>
+    <t>adv. 自始至终,到处;全部 prep. 贯穿,遍及</t>
+  </si>
+  <si>
     <t>tidy</t>
   </si>
   <si>
+    <t>[ˈtaɪdi]</t>
+  </si>
+  <si>
+    <t>adj.整齐的；相当大的 vt.整理；收拾；弄整齐 vi.整理；收拾 n.椅子的背罩 n.(Tidy)人名；(英)泰迪</t>
+  </si>
+  <si>
     <t>transposed</t>
   </si>
   <si>
+    <t>v. 调换;颠倒顺序;移项(transpore的过去分词) adj. 移调的;变调的</t>
+  </si>
+  <si>
     <t>treadmill</t>
   </si>
   <si>
+    <t>['tredmɪl]</t>
+  </si>
+  <si>
+    <t>n. 踏车,跑步机;单调的工作</t>
+  </si>
+  <si>
     <t>trilingual</t>
   </si>
   <si>
+    <t>[traɪ'lɪŋgw(ə)l]</t>
+  </si>
+  <si>
+    <t>adj. 三种语言的</t>
+  </si>
+  <si>
     <t>trivially</t>
   </si>
   <si>
+    <t>['trɪvɪəli]</t>
+  </si>
+  <si>
+    <t>adv. 琐细地;平凡地;无能地</t>
+  </si>
+  <si>
     <t>various</t>
   </si>
   <si>
+    <t>['veərɪəs]</t>
+  </si>
+  <si>
+    <t>adj. 各种各样的；多方面的</t>
+  </si>
+  <si>
     <t>violating</t>
-  </si>
-  <si>
-    <t>[ə'nætəmɪ]</t>
-  </si>
-  <si>
-    <t>['bækbəʊn]</t>
-  </si>
-  <si>
-    <t>['bɔːlpɑːk]</t>
-  </si>
-  <si>
-    <t>[baɪ'lɪŋgw(ə)l]</t>
-  </si>
-  <si>
-    <t>[kə'nɒnɪk(ə)l]</t>
-  </si>
-  <si>
-    <t>['keɪtə]</t>
-  </si>
-  <si>
-    <t>['klærɪtɪ]</t>
-  </si>
-  <si>
-    <t>[kəm'preʃ(ə)n]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[kraɪ'tɪərɪə]</t>
-  </si>
-  <si>
-    <t>[krʌntʃ]</t>
-  </si>
-  <si>
-    <t>[dɪ'laɪtɪd]</t>
-  </si>
-  <si>
-    <t>[dɪs'bɜːs]</t>
-  </si>
-  <si>
-    <t>['dɪsɪplɪn]</t>
-  </si>
-  <si>
-    <t>['drɔːbæk]</t>
-  </si>
-  <si>
-    <t>[ɪ'læb(ə)rət]</t>
-  </si>
-  <si>
-    <t>[,elɪ'veɪʃ(ə)n]</t>
-  </si>
-  <si>
-    <t>[in'kæpsəleit]</t>
-  </si>
-  <si>
-    <t>['envɪəs]</t>
-  </si>
-  <si>
-    <t>['eskəleɪt]</t>
-  </si>
-  <si>
-    <t>[i'skeip]</t>
-  </si>
-  <si>
-    <t>['i:vənlɪ]</t>
-  </si>
-  <si>
-    <t>[,iːvə'luːʃ(ə)n; 'ev-]</t>
-  </si>
-  <si>
-    <t>[ˈfiːzəbl]</t>
-  </si>
-  <si>
-    <t>[frʌ'streɪtɪŋ]</t>
-  </si>
-  <si>
-    <t>['geɪtɪd]</t>
-  </si>
-  <si>
-    <t>[hʊd]</t>
-  </si>
-  <si>
-    <t>['hɒrəblɪ]</t>
-  </si>
-  <si>
-    <t>[,ɪdɪə'mætɪk]</t>
-  </si>
-  <si>
-    <t>[ɪmˈperətɪv]</t>
-  </si>
-  <si>
-    <t>['ɪŋkjʊbeɪtə]</t>
-  </si>
-  <si>
-    <t>[ˈɪnfluəns]</t>
-  </si>
-  <si>
-    <t>[ɪn'dʒest]</t>
-  </si>
-  <si>
-    <t>[ˈɪntɜːnʃɪp]</t>
-  </si>
-  <si>
-    <t>[ɪn'tjuːɪtɪv]</t>
-  </si>
-  <si>
-    <t>[ɪn'vestɪgeɪt]</t>
-  </si>
-  <si>
-    <t>[kiːn]</t>
-  </si>
-  <si>
-    <t>['legəsɪ]</t>
-  </si>
-  <si>
-    <t>['lɪt(ə)rəlɪ]</t>
-  </si>
-  <si>
-    <t>[melt]</t>
-  </si>
-  <si>
-    <t>['mɒd(ə)rət]</t>
-  </si>
-  <si>
-    <t>[mʌk]</t>
-  </si>
-  <si>
-    <t>['nɒnprəʊ,lɪfə'reɪʃən]</t>
-  </si>
-  <si>
-    <t>[noˈtɔːriəsli]</t>
-  </si>
-  <si>
-    <t>[ˌɒbzəˈveɪʃn]</t>
-  </si>
-  <si>
-    <t>[əʊvə'teɪk]</t>
-  </si>
-  <si>
-    <t>[fi'nɔminəli]</t>
-  </si>
-  <si>
-    <t>['pɪvət]</t>
-  </si>
-  <si>
-    <t>['pəʊlɪŋ]</t>
-  </si>
-  <si>
-    <t>[prai'ɔritaiz; 'praiəri-]</t>
-  </si>
-  <si>
-    <t>[prɒbə'bɪlɪtɪ]</t>
-  </si>
-  <si>
-    <t>[,psaiki'delik]</t>
-  </si>
-  <si>
-    <t>[pə'sjuː]</t>
-  </si>
-  <si>
-    <t>['kwɒntaɪzd]</t>
-  </si>
-  <si>
-    <t>[,ri:prə'dju:səbl]</t>
-  </si>
-  <si>
-    <t>[rɪ'zaɪd]</t>
-  </si>
-  <si>
-    <t>[rɪ'spektɪv]</t>
-  </si>
-  <si>
-    <t>[rɪ'vɜːt]</t>
-  </si>
-  <si>
-    <t>[rə(ʊ)'bʌst]</t>
-  </si>
-  <si>
-    <t>[rʌf]</t>
-  </si>
-  <si>
-    <t>['sækrɪfaɪs]</t>
-  </si>
-  <si>
-    <t>[si'kwenʃəli]</t>
-  </si>
-  <si>
-    <t>[slaɪd]</t>
-  </si>
-  <si>
-    <t>[sləʊp]</t>
-  </si>
-  <si>
-    <t>[splaɪs]</t>
-  </si>
-  <si>
-    <t>[spred]</t>
-  </si>
-  <si>
-    <t>['stændədaɪz]</t>
-  </si>
-  <si>
-    <t>['stæn(d)baɪ]</t>
-  </si>
-  <si>
-    <t>[,suːpə'vɪʒn; ,sjuː-]</t>
-  </si>
-  <si>
-    <t>[ˈtemptɪŋ]</t>
-  </si>
-  <si>
-    <t>['tekstʃə]</t>
-  </si>
-  <si>
-    <t>[θruː'aʊt]</t>
-  </si>
-  <si>
-    <t>[ˈtaɪdi]</t>
-  </si>
-  <si>
-    <t>['tredmɪl]</t>
-  </si>
-  <si>
-    <t>[traɪ'lɪŋgw(ə)l]</t>
-  </si>
-  <si>
-    <t>['trɪvɪəli]</t>
-  </si>
-  <si>
-    <t>['veərɪəs]</t>
-  </si>
-  <si>
-    <t>n. 解剖；解剖学；剖析；骨骼</t>
-  </si>
-  <si>
-    <t>n. 支柱;主干网;决心,毅力;脊椎</t>
-  </si>
-  <si>
-    <t>n. (美)棒球场;活动领域;可变通范围 adj. 大约的</t>
-  </si>
-  <si>
-    <t>adj. 双语的 n. 通两种语言的人</t>
-  </si>
-  <si>
-    <t>adj. 依教规的;权威的;牧师的 n. 牧师礼服</t>
-  </si>
-  <si>
-    <t>vt. 投合，迎合；满足需要；提供饮食及服务 n. (Cater)人名；(英)凯特</t>
-  </si>
-  <si>
-    <t>n. 清楚,明晰;透明 n. (Clarity)人名;(英)克拉里蒂</t>
-  </si>
-  <si>
-    <t>n. 压缩,浓缩;压榨,压迫</t>
-  </si>
-  <si>
-    <t>n. （契约）副本（counterpart的复数）；相对物；相对应的人</t>
-  </si>
-  <si>
-    <t>n. 标准，条件（criterion的复数）</t>
-  </si>
-  <si>
-    <t>n.咬碎，咬碎声；扎扎地踏 vt.压碎；嘎扎嘎扎的咬嚼；扎扎地踏过 vi.嘎吱作响地咀嚼；嘎吱嘎吱地踏过</t>
-  </si>
-  <si>
-    <t>adj. 高兴的;欣喜的 v. 使…兴高采烈;感到快乐(delight的过去分词)</t>
-  </si>
-  <si>
-    <t>n. [数] 分母；命名者；共同特征或共同性质；平均水平或标准</t>
-  </si>
-  <si>
-    <t>vt.支付；支出</t>
-  </si>
-  <si>
-    <t>n. 学科;纪律;训练;惩罚 vt. 训练,训导;惩戒</t>
-  </si>
-  <si>
-    <t>n. 差异；分歧；分散，发散；（气流或海洋的）分开处</t>
-  </si>
-  <si>
-    <t>n. 缺点,不利条件;退税</t>
-  </si>
-  <si>
-    <t>adj.精心制作的；详尽的；煞费苦心的 vt.精心制作；详细阐述；从简单成分合成（复杂有机物） vi.详细描述；变复杂</t>
-  </si>
-  <si>
-    <t>n. 高地;海拔;提高;崇高;正面图</t>
-  </si>
-  <si>
-    <t>vt. 压缩;将…装入胶囊;将…封进内部;概述 vi. 形成胶囊</t>
-  </si>
-  <si>
-    <t>adj. 羡慕的;嫉妒的</t>
-  </si>
-  <si>
-    <t>vi. 逐步增强；逐步升高 vt. 使逐步上升</t>
-  </si>
-  <si>
-    <t>vt. 逃避,避开,避免;被忘掉;被忽视 vi. 逃脱;避开;溜走;(气体,液体等)漏出;(未受伤或只受了一点伤害而)逃脱;声音(不自觉地)由…发出 n. 逃跑;逃亡;逃走;逃跑工具或方法;野生种;泄漏</t>
-  </si>
-  <si>
-    <t>adv. 均匀地；平衡地；平坦地；平等地</t>
-  </si>
-  <si>
-    <t>n. 演变；进化论；进展</t>
-  </si>
-  <si>
-    <t>adj.可行的；可能的；可实行的</t>
-  </si>
-  <si>
-    <t>adj. 令人沮丧的 v. 使沮丧(frustrate的ing形式)</t>
-  </si>
-  <si>
-    <t>adj. 有关卡的;带栅门的 vt. 给…安装门(gate的过去分词)</t>
-  </si>
-  <si>
-    <t>n. 头巾;覆盖;兜帽 vt. 罩上;以头巾覆盖 n. (Hood)人名;(英)胡德;(德、荷)霍德</t>
-  </si>
-  <si>
-    <t>adv. 可怕地;非常地</t>
-  </si>
-  <si>
-    <t>adj.惯用的；符合语言习惯的；通顺的</t>
-  </si>
-  <si>
-    <t>adj.必要的，不可避免的；紧急的；命令的，专横的；势在必行的；[语]祈使的 n.必要的事；命令；需要；规则；[语]祈使语气</t>
-  </si>
-  <si>
-    <t>n. [禽] 孵卵器；[儿科] 保温箱；早产儿保育器；细菌培养器</t>
-  </si>
-  <si>
-    <t>n.影响；势力；感化；有影响的人或事 vt.影响；改变</t>
-  </si>
-  <si>
-    <t>vt. 摄取；咽下；吸收；接待</t>
-  </si>
-  <si>
-    <t>v. 整合；积分；集成化（integrate的ing形式） n. 集成化；综合化</t>
-  </si>
-  <si>
-    <t>n.实习生；（美）实习期；实习医师职位</t>
-  </si>
-  <si>
-    <t>adj. 直觉的;凭直觉获知的</t>
-  </si>
-  <si>
-    <t>v. 调查;研究</t>
-  </si>
-  <si>
-    <t>adj. 敏锐的，敏捷的；渴望的；强烈的；热心的；锐利的 n. 痛哭，挽歌 n. (Keen)人名；(英)基恩；(德)肯；(肯)金</t>
-  </si>
-  <si>
-    <t>n. 遗赠,遗产</t>
-  </si>
-  <si>
-    <t>adv. 照字面地;逐字地;不夸张地;正确地;简直</t>
-  </si>
-  <si>
-    <t>vi.熔化，溶解；渐混 vt.使融化；使熔化；使软化；使感动 n.熔化；熔化物</t>
-  </si>
-  <si>
-    <t>adj. 稳健的，温和的；适度的，中等的；有节制的 vi. 变缓和，变弱 vt. 节制；减轻</t>
-  </si>
-  <si>
-    <t>n. 淤泥;垃圾;肥料;品质低劣的东西 vt. 弄脏;施肥;清除…的污物 vi. 闲逛;鬼混 n. (Muck)人名;(德、匈、捷)穆克</t>
-  </si>
-  <si>
-    <t>n.防扩散；防止（核）扩散</t>
-  </si>
-  <si>
-    <t>adv. 众所周知地;声名狼藉地;恶名昭彰地</t>
-  </si>
-  <si>
-    <t>n.新手，初学者（novice的复数形式）</t>
-  </si>
-  <si>
-    <t>n.观察；监视；观察报告</t>
-  </si>
-  <si>
-    <t>vt. 赶上；压倒；突然来袭 vi. 超车</t>
-  </si>
-  <si>
-    <t>adv.现象上地；明白地；从感官认识到</t>
-  </si>
-  <si>
-    <t>n.枢轴；中心点；中心；旋转运动；基准兵；中锋；（篮球）持球转身策应 v.以……为中心旋转；把……置于枢轴上；在枢轴上转动；随……转移 n.(Pivot) （法、美、意、英、瑞、俄）皮沃（人名）</t>
-  </si>
-  <si>
-    <t>n. 投票；轮询 v. 获得…票（poll的ing形式）</t>
-  </si>
-  <si>
-    <t>vt. 把…区分优先次序 vi. 把事情按优先顺序排好</t>
-  </si>
-  <si>
-    <t>n. 可能性;机率;[数] 或然率</t>
-  </si>
-  <si>
-    <t>adj. 引起幻觉的 n. 迷幻剂</t>
-  </si>
-  <si>
-    <t>vt. 继续;从事;追赶;纠缠 vi. 追赶;继续进行</t>
-  </si>
-  <si>
-    <t>adj. 量化的;量子化的 v. 使量子化(quantize的过去分词)</t>
-  </si>
-  <si>
-    <t>adj.循环的；再发的 v.再发生，反复出现；（小数）循环（recur 的现在分词）</t>
-  </si>
-  <si>
-    <t>adj.可再生的；可繁殖的；可复写的</t>
-  </si>
-  <si>
-    <t>vi. 住，居住；属于</t>
-  </si>
-  <si>
-    <t>adj. 分别的，各自的</t>
-  </si>
-  <si>
-    <t>vi. 回复;重提;返祖遗传;归还 vt. 使回复原状 n. 恢复原状者 n. (Revert)人名;(西)雷韦特;(法)勒韦尔</t>
-  </si>
-  <si>
-    <t>adj. 强健的；健康的；粗野的；粗鲁的</t>
-  </si>
-  <si>
-    <t>adj. 粗糙的;粗略的;粗野的;艰苦的;未经加工的 vt. 使粗糙;粗暴对待;草拟 n. 艰苦;高低不平的地面;未经加工的材料;粗糙的部分 vi. 举止粗野 adv. 粗糙地;粗略地;粗暴地 n. (Rough)人名;(英)拉夫</t>
-  </si>
-  <si>
-    <t>n. 牺牲;祭品;供奉 vt. 牺牲;献祭;亏本出售 vi. 献祭;奉献</t>
-  </si>
-  <si>
-    <t>adv. 从而；继续地；循序地</t>
-  </si>
-  <si>
-    <t>v.滑动；平稳地走；悄悄移动；逐渐恶化；贬值；衰落；不知不觉陷入；不加理睬 n.滑动；下跌； 幻灯片；变糟；滑梯；滑垒；坡道滑；雪崩；载物玻璃片；（机器或乐器的）滑动装置；发夹；轻便鞋</t>
-  </si>
-  <si>
-    <t>n. 斜坡;倾斜;斜率;扛枪姿势 vi. 倾斜;逃走 vt. 倾斜;使倾斜;扛</t>
-  </si>
-  <si>
-    <t>vt. 拼接;接合;使结婚 n. 接合;结婚</t>
-  </si>
-  <si>
-    <t>vi. 传播;伸展 vt. 传播,散布;展开;伸展;铺开 n. 传播;伸展 adj. 伸展的</t>
-  </si>
-  <si>
-    <t>vt. 使标准化;用标准检验</t>
-  </si>
-  <si>
-    <t>n. 备用品；可信赖的人 adj. 备用的 adv. 备用地；待命地</t>
-  </si>
-  <si>
-    <t>n. 监督，管理</t>
-  </si>
-  <si>
-    <t>adj.吸引人的；诱惑人的 v.引诱（tempt的ing形式）</t>
-  </si>
-  <si>
-    <t>n. 纹理;材质(texture的复数) v. 使具有某种结构(texture的三单形式)</t>
-  </si>
-  <si>
-    <t>adv. 自始至终,到处;全部 prep. 贯穿,遍及</t>
-  </si>
-  <si>
-    <t>adj.整齐的；相当大的 vt.整理；收拾；弄整齐 vi.整理；收拾 n.椅子的背罩 n.(Tidy)人名；(英)泰迪</t>
-  </si>
-  <si>
-    <t>v. 调换;颠倒顺序;移项(transpore的过去分词) adj. 移调的;变调的</t>
-  </si>
-  <si>
-    <t>n. 踏车,跑步机;单调的工作</t>
-  </si>
-  <si>
-    <t>adj. 三种语言的</t>
-  </si>
-  <si>
-    <t>adv. 琐细地;平凡地;无能地</t>
-  </si>
-  <si>
-    <t>adj. 各种各样的；多方面的</t>
   </si>
   <si>
     <t>v. 违背，违反（violate的现在分词）</t>
@@ -764,32 +780,374 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -812,9 +1170,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -822,11 +1422,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1109,17 +1761,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A87" sqref="$A87:$XFD87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="73.3916666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1137,917 +1796,949 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C77" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="C80" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
         <v>247</v>
       </c>
     </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>